--- a/Feature-Analysis/Resize Feature/s_13_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_13_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.84057870368</v>
+        <v>738157.84057870368</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.84118055552</v>
+        <v>738157.84118055552</v>
       </c>
       <c r="C3" s="0">
         <v>51.999999582767487</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.84146990743</v>
+        <v>738157.84146990743</v>
       </c>
       <c r="C4" s="0">
         <v>77.000004798173904</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.84174768522</v>
+        <v>738157.84174768522</v>
       </c>
       <c r="C5" s="0">
         <v>101.00000537931919</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.84217592597</v>
+        <v>738157.84217592597</v>
       </c>
       <c r="C6" s="0">
         <v>138.00000585615635</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.84245370375</v>
+        <v>738157.84245370375</v>
       </c>
       <c r="C7" s="0">
         <v>162.00000643730164</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.84292824077</v>
+        <v>738157.84292824077</v>
       </c>
       <c r="C8" s="0">
         <v>203.00000533461571</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.84320601856</v>
+        <v>738157.84320601856</v>
       </c>
       <c r="C9" s="0">
         <v>227.00000591576099</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.84364583332</v>
+        <v>738157.84364583332</v>
       </c>
       <c r="C10" s="0">
         <v>265.00000096857548</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.84391203709</v>
+        <v>738157.84391203709</v>
       </c>
       <c r="C11" s="0">
         <v>288.00000697374344</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.84437499999</v>
+        <v>738157.84437499999</v>
       </c>
       <c r="C12" s="0">
         <v>328.00000123679638</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.84465277777</v>
+        <v>738157.84465277777</v>
       </c>
       <c r="C13" s="0">
         <v>352.00000181794167</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.84508101852</v>
+        <v>738157.84508101852</v>
       </c>
       <c r="C14" s="0">
         <v>389.00000229477882</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.84537037043</v>
+        <v>738157.84537037043</v>
       </c>
       <c r="C15" s="0">
         <v>414.00000751018524</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.84582175931</v>
+        <v>738157.84582175931</v>
       </c>
       <c r="C16" s="0">
         <v>453.00000719726086</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.84612268524</v>
+        <v>738157.84612268524</v>
       </c>
       <c r="C17" s="0">
         <v>479.0000069886446</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.8465625</v>
+        <v>738157.8465625</v>
       </c>
       <c r="C18" s="0">
         <v>517.00000204145908</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.84684027778</v>
+        <v>738157.84684027778</v>
       </c>
       <c r="C19" s="0">
         <v>541.00000262260437</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.84724537039</v>
+        <v>738157.84724537039</v>
       </c>
       <c r="C20" s="0">
         <v>576.00000388920307</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.84819444444</v>
+        <v>738157.84819444444</v>
       </c>
       <c r="C21" s="0">
         <v>658.00000168383121</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.84819444444</v>
+        <v>738157.84819444444</v>
       </c>
       <c r="C22" s="0">
         <v>658.00000168383121</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.84832175926</v>
+        <v>738157.84832175926</v>
       </c>
       <c r="C23" s="0">
         <v>669.00000236928463</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.84890046297</v>
+        <v>738157.84890046297</v>
       </c>
       <c r="C24" s="0">
         <v>719.00000274181366</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.84906250006</v>
+        <v>738157.84906250006</v>
       </c>
       <c r="C25" s="0">
         <v>733.00000727176666</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.84952546295</v>
+        <v>738157.84952546295</v>
       </c>
       <c r="C26" s="0">
         <v>773.0000015348196</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.84981481486</v>
+        <v>738157.84981481486</v>
       </c>
       <c r="C27" s="0">
         <v>798.00000675022602</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.85023148148</v>
+        <v>738157.85023148148</v>
       </c>
       <c r="C28" s="0">
         <v>834.00000259280205</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.85054398153</v>
+        <v>738157.85054398153</v>
       </c>
       <c r="C29" s="0">
         <v>861.00000701844692</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.85097222216</v>
+        <v>738157.85097222216</v>
       </c>
       <c r="C30" s="0">
         <v>897.99999743700027</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.85126157408</v>
+        <v>738157.85126157408</v>
       </c>
       <c r="C31" s="0">
         <v>923.00000265240669</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.85172453709</v>
+        <v>738157.85172453709</v>
       </c>
       <c r="C32" s="0">
         <v>963.00000697374344</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.85240740736</v>
+        <v>738157.85240740736</v>
       </c>
       <c r="C33" s="0">
         <v>1021.9999987632036</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.85240740736</v>
+        <v>738157.85240740736</v>
       </c>
       <c r="C34" s="0">
         <v>1021.9999987632036</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.85280092596</v>
+        <v>738157.85280092596</v>
       </c>
       <c r="C35" s="0">
         <v>1056.000005453825</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.85310185188</v>
+        <v>738157.85310185188</v>
       </c>
       <c r="C36" s="0">
         <v>1082.0000052452087</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.8535185185</v>
+        <v>738157.8535185185</v>
       </c>
       <c r="C37" s="0">
         <v>1118.0000010877848</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.85379629629</v>
+        <v>738157.85379629629</v>
       </c>
       <c r="C38" s="0">
         <v>1142.0000016689301</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.85418981477</v>
+        <v>738157.85418981477</v>
       </c>
       <c r="C39" s="0">
         <v>1175.9999983012676</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.85461805551</v>
+        <v>738157.85461805551</v>
       </c>
       <c r="C40" s="0">
         <v>1212.9999987781048</v>
